--- a/lessons/static/functions.xlsx
+++ b/lessons/static/functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/airwin/Dropbox/Teaching/STAT 2430 Data Viz/Data-Viz-2022/data-viz-notes/lessons/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A267A07D-3595-9D47-AAF3-28E0C6EA0889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D404E069-FBE7-454C-ACDC-7F64E41D1F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{3A58871C-E590-B345-83F8-2E3F47B23569}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{3A58871C-E590-B345-83F8-2E3F47B23569}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="150">
   <si>
     <t>Lesson</t>
   </si>
@@ -103,9 +103,6 @@
     <t>+</t>
   </si>
   <si>
-    <t>Adds a new feature to a plot</t>
-  </si>
-  <si>
     <t>ggplot(diamonds) + geom_histogram(aes(price))</t>
   </si>
   <si>
@@ -289,9 +286,6 @@
     <t>Stop grouping rows in a table</t>
   </si>
   <si>
-    <t>dimonds |&gt; group(cut) |&gt; ungroup()</t>
-  </si>
-  <si>
     <t>read_csv</t>
   </si>
   <si>
@@ -320,6 +314,177 @@
   </si>
   <si>
     <t>skim(diamonds)</t>
+  </si>
+  <si>
+    <t>iris</t>
+  </si>
+  <si>
+    <t>Size data for 3 species of iris, 50 observations each</t>
+  </si>
+  <si>
+    <t>penguins</t>
+  </si>
+  <si>
+    <t>palmerpenguins</t>
+  </si>
+  <si>
+    <t>Size, sex, and location data for 3 species of penguin</t>
+  </si>
+  <si>
+    <t>diamonds |&gt; group(cut) |&gt; ungroup()</t>
+  </si>
+  <si>
+    <t>Adds a new feature to a plot. (Can also be used to add numbers!)</t>
+  </si>
+  <si>
+    <t>glimpse</t>
+  </si>
+  <si>
+    <t>facet_grid</t>
+  </si>
+  <si>
+    <t>facet_wrap</t>
+  </si>
+  <si>
+    <t>scale_color_viridis_d</t>
+  </si>
+  <si>
+    <t>geom_jitter</t>
+  </si>
+  <si>
+    <t>kable</t>
+  </si>
+  <si>
+    <t>kable_styling</t>
+  </si>
+  <si>
+    <t>kableExtra</t>
+  </si>
+  <si>
+    <t>knitr</t>
+  </si>
+  <si>
+    <t>rename</t>
+  </si>
+  <si>
+    <t>pivot_wider</t>
+  </si>
+  <si>
+    <t>pivot_longer</t>
+  </si>
+  <si>
+    <t>tidyr</t>
+  </si>
+  <si>
+    <t>is.na</t>
+  </si>
+  <si>
+    <t>Tests for missing values, returning a vector of TRUE or FALSE</t>
+  </si>
+  <si>
+    <t>is.na(c(1, 2, NA, 4))</t>
+  </si>
+  <si>
+    <t>str_remove</t>
+  </si>
+  <si>
+    <t>str_replace</t>
+  </si>
+  <si>
+    <t>separate</t>
+  </si>
+  <si>
+    <t>unite</t>
+  </si>
+  <si>
+    <t>stringr</t>
+  </si>
+  <si>
+    <t>Removes text from a string</t>
+  </si>
+  <si>
+    <t>str_remove("Andrew Irwin", "ndrew")</t>
+  </si>
+  <si>
+    <t>Replaces text with new text</t>
+  </si>
+  <si>
+    <t>str_replace("Dogs are great", "Dog", "Cat")</t>
+  </si>
+  <si>
+    <t>Splits a column in a table into two or more columns</t>
+  </si>
+  <si>
+    <t>Combines two or more columns in a table together</t>
+  </si>
+  <si>
+    <t>unite(penguins, "sp-is", species, island)</t>
+  </si>
+  <si>
+    <t>mpg |&gt; separate(trans, sep = "\\(", into = c("trans_type", "trans_gears"))</t>
+  </si>
+  <si>
+    <t>Renames a column in a table</t>
+  </si>
+  <si>
+    <t>rename(penguins, spp = species)</t>
+  </si>
+  <si>
+    <t>Shows a concise overview of part of a table</t>
+  </si>
+  <si>
+    <t>glimpse(pengunis)</t>
+  </si>
+  <si>
+    <t>Formats a table nicely</t>
+  </si>
+  <si>
+    <t>penguins |&gt; kable()</t>
+  </si>
+  <si>
+    <t>Additional formatting of kable tables</t>
+  </si>
+  <si>
+    <t>penguins |&gt; kable() |&gt; kable_styling()</t>
+  </si>
+  <si>
+    <t>The viridis colour scale for discrete variables</t>
+  </si>
+  <si>
+    <t>Randomly shifts points; useful when they would all appear on top of each other</t>
+  </si>
+  <si>
+    <t>Arrange facets of a plot in a matrix</t>
+  </si>
+  <si>
+    <t>Arrange facets like a block of text</t>
+  </si>
+  <si>
+    <t>Reduce the number of rows in a table by making extra columns</t>
+  </si>
+  <si>
+    <t>Stack rows of a table by combining columns</t>
+  </si>
+  <si>
+    <t>lm</t>
+  </si>
+  <si>
+    <t>Make a linear model (regression line)</t>
+  </si>
+  <si>
+    <t>lm(price ~ carat, data = diamonds)</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>Summarize a model or data table</t>
+  </si>
+  <si>
+    <t>geom_smooth</t>
+  </si>
+  <si>
+    <t>Add a smoothing line to a scatter plot</t>
   </si>
 </sst>
 </file>
@@ -671,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07006F67-71D7-DC4F-B2F9-77CFA3F8A29F}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -715,7 +880,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -789,10 +954,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -803,16 +968,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -823,16 +988,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -843,13 +1008,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -860,16 +1025,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -880,16 +1045,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -900,16 +1065,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
       <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
         <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -920,16 +1085,16 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
         <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -937,13 +1102,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
@@ -954,16 +1119,16 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -974,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -994,16 +1159,16 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
         <v>55</v>
       </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>56</v>
-      </c>
-      <c r="E17" t="s">
-        <v>57</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1014,16 +1179,16 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
         <v>58</v>
       </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>59</v>
-      </c>
-      <c r="E18" t="s">
-        <v>60</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1034,16 +1199,16 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>62</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -1054,16 +1219,16 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1074,16 +1239,16 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1094,16 +1259,16 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -1114,16 +1279,16 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1134,16 +1299,16 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>69</v>
-      </c>
-      <c r="E24" t="s">
-        <v>70</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1154,16 +1319,16 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
         <v>79</v>
       </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>80</v>
-      </c>
-      <c r="E25" t="s">
-        <v>81</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1174,16 +1339,16 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
         <v>82</v>
       </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>83</v>
-      </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1191,16 +1356,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
         <v>85</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1208,16 +1373,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
         <v>88</v>
-      </c>
-      <c r="C28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" t="s">
-        <v>90</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1225,21 +1390,385 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>10</v>
       </c>
-      <c r="B29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>149</v>
+      </c>
+      <c r="F49" t="s">
         <v>12</v>
       </c>
     </row>

--- a/lessons/static/functions.xlsx
+++ b/lessons/static/functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/airwin/Dropbox/Teaching/STAT 2430 Data Viz/Data-Viz-2022/data-viz-notes/lessons/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D404E069-FBE7-454C-ACDC-7F64E41D1F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C24960E-5C7F-7747-B0CA-432132BB1233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{3A58871C-E590-B345-83F8-2E3F47B23569}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="152">
   <si>
     <t>Lesson</t>
   </si>
@@ -485,6 +485,12 @@
   </si>
   <si>
     <t>Add a smoothing line to a scatter plot</t>
+  </si>
+  <si>
+    <t>gapminder</t>
+  </si>
+  <si>
+    <t>Life expectancy, population, and GDP by country</t>
   </si>
 </sst>
 </file>
@@ -836,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07006F67-71D7-DC4F-B2F9-77CFA3F8A29F}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1409,6 +1415,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
       <c r="B30" t="s">
         <v>93</v>
       </c>
@@ -1770,6 +1779,23 @@
       </c>
       <c r="F49" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
